--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BF3C33-AFF6-4278-8C1F-3E7B6F3ACDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39490F48-8EF5-415C-B430-F6F3986C48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05469658609019197</v>
+        <v>0.06688351861947486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05129725500479758</v>
+        <v>0.05052136450178114</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05180369886137536</v>
+        <v>0.07223468202686074</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05294241053206014</v>
+        <v>0.05756228418278427</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8410345973904608</v>
+        <v>0.4808467591774199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2736155304446459</v>
+        <v>0.373867916025206</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3961149187300985</v>
+        <v>0.47216762000518</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4129010919941911</v>
+        <v>0.4206624292218161</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9802132497746853</v>
+        <v>0.5558177723377802</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3435050237106291</v>
+        <v>0.4627776641037384</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6015573155568803</v>
+        <v>0.5490727207102</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5087308717417378</v>
+        <v>0.5050485033556095</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.583050439803419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.801762659565861</v>
+        <v>0.7276522159289929</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8647178719955632</v>
+        <v>0.7939418634834174</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8882068287749838</v>
+        <v>0.6473748148229076</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9641746382821208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8418979750708001</v>
+        <v>0.9475191717130533</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9032920731924726</v>
+        <v>0.9583087685027243</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9122971061094454</v>
+        <v>0.9557743503433891</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9761659747529488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8418979750708001</v>
+        <v>0.9840439895010005</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9046123784929764</v>
+        <v>0.9856667848003297</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9122971061094454</v>
+        <v>0.9800891513951902</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9838379359707093</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8430033038507838</v>
+        <v>0.989173966027745</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9091129034418184</v>
+        <v>0.9898578242685614</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9129456718022334</v>
+        <v>0.9864987353263918</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9951894290261664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9949091721286113</v>
+        <v>0.9961499797778796</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9944449722770516</v>
+        <v>0.9952435808087613</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9952265114575805</v>
+        <v>0.9956694727343971</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9951894290261664</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.996420470741033</v>
+        <v>0.9961499797778796</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9954407479677516</v>
+        <v>0.9952435808087613</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9959820692141149</v>
+        <v>0.9956694727343971</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9955440532902228</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9972051871019696</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9977605981232478</v>
+        <v>0.9967219020155904</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.996373927844674</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9992875274747827</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.003630850862232</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.001666303334462</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.001666303334462</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.00264761478536</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.003630850862232</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.001666303334462</v>
+        <v>0.999750205911343</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.001666303334462</v>
+        <v>0.999750205911343</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.00264761478536</v>
+        <v>0.9998750873544513</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>4.389408858425247</v>
+        <v>9.040463117689185</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.078783411014934</v>
+        <v>1.386844641607584</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.015158528968735</v>
+        <v>1.02979788844356</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
@@ -4851,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>2.664031949413429</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>1.00763435599002</v>
       </c>
       <c r="J38" s="4" t="n">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>1.0010193855447</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>1</v>
@@ -4908,55 +4908,55 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>4.510089278217794</v>
+        <v>4.774287538915942</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.058374185541421</v>
+        <v>1.295681979684822</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.516185646167644</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017388491933459</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.002493004111784</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001235057267436</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -4983,22 +4983,22 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>11.36881350975949</v>
+        <v>15.61344537815126</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.010648558972183</v>
+        <v>2.775516195322439</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.004631927212572</v>
+        <v>1.006819330348224</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.003469739725748</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5010,40 +5010,40 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.007782101167315</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,16 +5058,16 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>2.519318388919264</v>
+        <v>8.466164500060744</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.9624552392664666</v>
+        <v>1.030379565186195</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.039009357736104</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.198016768335144</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.023185155713097</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
@@ -5133,13 +5133,13 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>19.54882352941176</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.057141997412211</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1</v>
+        <v>5.643872990073721</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5151,19 +5151,19 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.018245474211545</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.051533279288849</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.021772360533276</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>1</v>
@@ -5208,22 +5208,22 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>33</v>
+        <v>8.350706283487579</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>2.102016464860017</v>
+        <v>1.453569762015866</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>0.994525359737583</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v>1.096789727126806</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.004911011852317</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>1</v>
@@ -5253,13 +5253,13 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1.005477875026684</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9945519686084204</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,25 +5283,25 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>4.423209028459273</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v>1.117708405756796</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.026180043263631</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.034646775849954</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.064308849649984</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5358,10 +5358,10 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v/>
+        <v>2.117064647641234</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>4.054912638983435</v>
+        <v>1.622558459422283</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.483771684387241</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -5433,22 +5433,22 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>37.42425706692438</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.16293197502889</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.009781444123084</v>
+        <v>1.056514409568917</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.013534983699745</v>
+        <v>0.8548742496770763</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.005212599193973</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
@@ -5508,25 +5508,25 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>11.03055466837006</v>
+        <v>15.37636363636364</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.138191294276614</v>
+        <v>1.227326475109377</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.007351943558782</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.366320131318658</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>0.9860084282123318</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.014190113783343</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
@@ -5586,13 +5586,13 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.045479810364558</v>
+        <v>1.228765501339814</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>3.039112667834209</v>
+        <v>2.890658281772999</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.017750809505516</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>1</v>
@@ -5607,19 +5607,19 @@
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.003764605963378</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,13 +5658,13 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>9.040463117689185</v>
+        <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.386844641607584</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.02979788844356</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -5676,10 +5676,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>2.664031949413429</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.00763435599002</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
@@ -5733,34 +5733,34 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>4.774287538915942</v>
+        <v>5.375467247323535</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.295681979684822</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.516185646167644</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.017388491933459</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.034181513762397</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.006136411113432</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.002493004111784</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>15.61344537815126</v>
+        <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>2.775516195322439</v>
+        <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.006819330348224</v>
+        <v/>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v>2.1858924395947</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.003469739725748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.007782101167315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>8.466164500060744</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.030379565186195</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.198016768335144</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5961,10 +5961,10 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>5.643872990073721</v>
+        <v>1.078155981493721</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.036015325670498</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>8.350706283487579</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.453569762015866</v>
+        <v>1.324452572005108</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>2.985252457923679</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.096789727126806</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.00374796154751</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.013640895675352</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,13 +6108,13 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v/>
+        <v>2.685169842584921</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.117708405756796</v>
+        <v>1.322795994502258</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v>2.232256833266185</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.01967303435894</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.117064647641234</v>
+        <v>2.535292502059874</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.622558459422283</v>
+        <v>2.348282959592677</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1</v>
+        <v>1.318817179499008</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.134462012033021</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>119.3368700265252</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1</v>
+        <v>1.318104023116248</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.056514409568917</v>
+        <v>1.01483942227431</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v>2.380640229971005</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>15.37636363636364</v>
+        <v>9.634663536776213</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.227326475109377</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.034394263020685</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v/>
+        <v>2.450644427596664</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.228765501339814</v>
+        <v>1.440787031308006</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07278999881865122</v>
+        <v>0.05942968823410759</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.05180369886137536</v>
+        <v>0.07223468202686074</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.05129725500479758</v>
+        <v>0.05052136450178114</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.05469658609019197</v>
+        <v>0.06688351861947486</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.03715019336152332</v>
+        <v>0.02309129748391613</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.03982574090002807</v>
+        <v>0.01634147156640671</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03736309723156078</v>
+        <v>0.0102367719933289</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.0552190990557195</v>
+        <v>0.07511970031946662</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05294241053206014</v>
+        <v>0.05756228418278427</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>7.634994137385112</v>
+        <v>7.052449753947609</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>7.646460145444176</v>
+        <v>6.53657781492833</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.333921482134979</v>
+        <v>7.400194347720463</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>15.37636363636364</v>
+        <v>7.189316129032258</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>11.9970605894248</v>
+        <v>15.82743097578277</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>9.10549930032994</v>
+        <v>23.6696845971444</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.746714142002435</v>
+        <v>27.32852806710858</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>15.37636363636364</v>
+        <v>6.042653982186438</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>10.35514255924931</v>
+        <v>7.294755238376361</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5557512142406713</v>
+        <v>0.4191248901638152</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3961149187300985</v>
+        <v>0.47216762000518</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2736155304446459</v>
+        <v>0.373867916025206</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8410345973904608</v>
+        <v>0.4808467591774199</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.4456931206670422</v>
+        <v>0.3654759170679488</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3626332559003271</v>
+        <v>0.38679747783005</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3268043309443047</v>
+        <v>0.27975591073628</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8490689467531268</v>
+        <v>0.4539223562760768</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.4129010919941911</v>
+        <v>0.4206624292218161</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.329999829816094</v>
+        <v>1.384105077903612</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.518643421675224</v>
+        <v>1.162876693459362</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.255429555304874</v>
+        <v>1.237810585684325</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.165485049980184</v>
+        <v>1.155914564732873</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.400422116416632</v>
+        <v>1.362777556103657</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.348652566317478</v>
+        <v>1.331465342429346</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.274988100607356</v>
+        <v>1.459070430087383</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.152030658816397</v>
+        <v>1.252963684808085</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.210457302642529</v>
+        <v>1.196862575208599</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7391490203601806</v>
+        <v>0.5801128887515303</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6015573155568803</v>
+        <v>0.5490727207102</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.3435050237106291</v>
+        <v>0.4627776641037384</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9802132497746853</v>
+        <v>0.5558177723377802</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6241585033168727</v>
+        <v>0.4980623770766019</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.4890662712020387</v>
+        <v>0.5150074362697948</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4166716331809369</v>
+        <v>0.4081835769974716</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9781534581085491</v>
+        <v>0.5687482281364415</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5087308717417378</v>
+        <v>0.5050485033556095</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.2127742121901</v>
+        <v>1.37388995217372</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.437465474416294</v>
+        <v>1.445968509337872</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>2.334063854161478</v>
+        <v>1.572358115723318</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.01564027370479</v>
+        <v>1.048995675958863</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.350062392200587</v>
+        <v>1.568460281763391</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.607736295470569</v>
+        <v>1.555437441925059</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.78339789994044</v>
+        <v>1.610619356246265</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.018838136522972</v>
+        <v>1.122683621598001</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.674852063933134</v>
+        <v>1.310676895841091</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8964208708584023</v>
+        <v>0.7970112689821983</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8647178719955632</v>
+        <v>0.7939418634834174</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.801762659565861</v>
+        <v>0.7276522159289929</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.583050439803419</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8426529221003155</v>
+        <v>0.7811910562853113</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7862895951019704</v>
+        <v>0.8010618492438725</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.743091315579636</v>
+        <v>0.6574283700139653</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.6385243205416663</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8882068287749838</v>
+        <v>0.6473748148229076</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.029192647371146</v>
+        <v>1.104813853830609</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.044609001902423</v>
+        <v>1.207026373818037</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.050058848495977</v>
+        <v>1.302159398364996</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1</v>
+        <v>1.653672774189488</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.0366948614522</v>
+        <v>1.089455502511296</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.058590438213984</v>
+        <v>1.125512748179182</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.049134415910325</v>
+        <v>1.230106704995167</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1</v>
+        <v>1.460213409990335</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.025029424247988</v>
+        <v>1.477916086277242</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9225897692375074</v>
+        <v>0.880549091630647</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9032920731924726</v>
+        <v>0.9583087685027243</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8418979750708001</v>
+        <v>0.9475191717130533</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9641746382821208</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8735739543290784</v>
+        <v>0.8510728947826443</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8323586470420905</v>
+        <v>0.9016053234039686</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.7796026733386765</v>
+        <v>0.8087070460082225</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.9323817754599083</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9122971061094454</v>
+        <v>0.9557743503433891</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.001454203089716</v>
+        <v>1.011703622308644</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.001461659345507</v>
+        <v>1.028548227039965</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1</v>
+        <v>1.038547840379749</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1</v>
+        <v>1.012436892648611</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.002535882081563</v>
+        <v>1.063850430348142</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.001127915308312</v>
+        <v>1.101096514717892</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1</v>
+        <v>1.220683735529205</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1</v>
+        <v>1.04606999119351</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1</v>
+        <v>1.02549236651418</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9239314021304724</v>
+        <v>0.8908547056233119</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9046123784929764</v>
+        <v>0.9856667848003297</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8418979750708001</v>
+        <v>0.9840439895010005</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9761659747529488</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8757892348667817</v>
+        <v>0.9054142653721553</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8332974771020952</v>
+        <v>0.9927544792512077</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.7796026733386765</v>
+        <v>0.9871755378701058</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.9753365956443357</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9122971061094454</v>
+        <v>0.9800891513951902</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.003820687193801</v>
+        <v>1.002462096897582</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004975086629192</v>
+        <v>1.004251984070946</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.001312901102881</v>
+        <v>1.005213157726156</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.007859279483391</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.026854081298423</v>
+        <v>1.00328656109751</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.039871870959941</v>
+        <v>1.00464069666912</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.000578289954291</v>
+        <v>1.00928139333824</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.018562786676479</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.00065645055144</v>
+        <v>1.006536218604773</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9274614550065432</v>
+        <v>0.8930480762302234</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9091129034418184</v>
+        <v>0.9898578242685614</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8430033038507838</v>
+        <v>0.989173966027745</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9838379359707093</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8993077501801777</v>
+        <v>0.9083899646738582</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8665226065803544</v>
+        <v>0.9973615516563226</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.7800535097330068</v>
+        <v>0.9963379023309664</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.9934415608070453</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9129456718022334</v>
+        <v>0.9864987353263918</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.073154775017147</v>
+        <v>1.114451610729503</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.093863004817305</v>
+        <v>1.005440939504802</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.180196053305997</v>
+        <v>1.007052362870152</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1</v>
+        <v>1.01153797047301</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.104938914280671</v>
+        <v>1.098686637946399</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.145210909403896</v>
+        <v>1.001136741306279</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.277338658235571</v>
+        <v>1.002273482612559</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1</v>
+        <v>1.004546965225117</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.090098026652998</v>
+        <v>1.009295166671581</v>
       </c>
     </row>
     <row r="9">
@@ -7151,44 +7151,44 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9953096890846223</v>
+        <v>0.9952588670136566</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9944449722770516</v>
+        <v>0.9952435808087613</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9949091721286113</v>
+        <v>0.9961499797778796</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9951894290261664</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9936801290882783</v>
+        <v>0.9980359162317692</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9923511423009225</v>
+        <v>0.9984952937293851</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9963925034743072</v>
+        <v>0.9986030592281488</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.9979587050372211</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9952265114575805</v>
+        <v>0.9956694727343971</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000808749493153</v>
+        <v>1.001436989950215</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.001001338151894</v>
+        <v>1</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001519031741549</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
@@ -7197,16 +7197,16 @@
         <v>1.000477147249376</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.000636196332502</v>
+        <v>1</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.001272392665003</v>
+        <v>1</v>
       </c>
       <c r="U9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000759515870774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9961146452911996</v>
+        <v>0.9966890440034174</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9954407479677516</v>
+        <v>0.9952435808087613</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.996420470741033</v>
+        <v>0.9961499797778796</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>0.9951894290261664</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9941542608286327</v>
+        <v>0.9985121263239779</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.992982472458208</v>
+        <v>0.9984952937293851</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9976603059871922</v>
+        <v>0.9986030592281488</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>0.9979587050372211</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9959820692141149</v>
+        <v>0.9956694727343971</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.001900320214241</v>
+        <v>1.000624112797101</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.002330475380109</v>
+        <v>1.001485386326861</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000787535366825</v>
+        <v>1.003287828389349</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.004833824429326</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.003686525683482</v>
+        <v>1.000409094074229</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.004608157104352</v>
+        <v>1.000511367592786</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.00062743432723</v>
+        <v>1.001022735185572</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.002045470371144</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000393767683412</v>
+        <v>1.004060826409337</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9980075820873479</v>
+        <v>0.9973110903905102</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9977605981232478</v>
+        <v>0.9967219020155904</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9972051871019696</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9955440532902228</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9978192360445202</v>
+        <v>0.9989206117179028</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9975582916931636</v>
+        <v>0.9990058918641478</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.998286272310083</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9965800464928156</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.996373927844674</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.001337268302532</v>
+        <v>1.0021985775096</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.001530356434607</v>
+        <v>1.002791003290589</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002154377758815</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.003746682148067</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
         <v>1.000733936091364</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.000856258773258</v>
+        <v>1.00064850843061</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.001712517546516</v>
+        <v>1</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.003425035093033</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.002950529953441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7343,41 +7343,41 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9993421859925598</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9992875274747827</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9985515715945108</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9984124597322624</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000778698831334</v>
+        <v>1</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000833438912439</v>
+        <v>1</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
@@ -7386,10 +7386,10 @@
         <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001674796964098</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001814363377773</v>
+        <v>1</v>
       </c>
       <c r="T12" s="22" t="n">
         <v>1</v>
@@ -7407,31 +7407,31 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7471,31 +7471,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,31 +7535,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,31 +7599,31 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1.000120372584895</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9993535437780372</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9992740404222998</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1.000223942735113</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9999958550678605</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.99999336812507</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9993137905188877</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.001545744684284</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.001545744684284</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.00231425562137</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1.004359975605982</v>
+        <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000684734378335</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000684734378335</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000912979171114</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1.001825958342228</v>
+        <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.003337115613676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.9995037561239176</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.9994251499614427</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1.003630850862232</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9996537556072502</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9996243657132413</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1.00181931435777</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>1.00264761478536</v>
+        <v>0.9997124923438278</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.000246572147343</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.000246572147343</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.000325242915803</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.000176436752491</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.000176436752491</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.000205842877906</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.000162621457902</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.999750205911343</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.999750205911343</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1.001666303334462</v>
+        <v>0.999750205911343</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1.003630850862232</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9998301312695047</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9998301312695047</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1.000908830454738</v>
+        <v>0.9998301312695047</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1.00181931435777</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>1.00264761478536</v>
+        <v>0.9998750873544513</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>0.9983364686134344</v>
+        <v>1.000249856501334</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>0.9983364686134344</v>
+        <v>1.000249856501334</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>0.9983364686134344</v>
+        <v>1.000249856501334</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>0.9963822845231263</v>
+        <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>0.9990919947680701</v>
+        <v>1.000169897590783</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>0.9990919947680701</v>
+        <v>1.000169897590783</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>0.9990919947680701</v>
+        <v>1.000169897590783</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>0.9981839895361402</v>
+        <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>0.9973593765682803</v>
+        <v>1.000124928250667</v>
       </c>
     </row>
     <row r="20">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>2489.108333333333</v>
+        <v>2216.403333333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>287.41</v>
+        <v>83.78</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1261.56</v>
+        <v>757.41</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1360.95</v>
+        <v>1050.41</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1381.58</v>
+        <v>1081.71</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>1381.58</v>
+        <v>1081.71</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>1381.58</v>
+        <v>1081.71</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1381.58</v>
+        <v>1081.71</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2881.71</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2903.71</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>1381.58</v>
+        <v>2906.67</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>2486.158333333333</v>
+        <v>2216.403333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>357.31</v>
+        <v>250.54</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1611.5</v>
+        <v>1196.15</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1705.57</v>
+        <v>1549.83</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2349.83</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2390.69</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2396.65</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>1705.57</v>
+        <v>2399.61</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>2486.158333333333</v>
+        <v>2216.403333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>136.79</v>
+        <v>78.53999999999999</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1555.14</v>
+        <v>1226.28</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1571.7</v>
+        <v>3403.56</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1571.7</v>
+        <v>3403.56</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3426.77</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3426.77</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3438.66</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3438.66</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3438.66</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3438.66</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>1578.98</v>
+        <v>3465.420000000001</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>2486.158333333333</v>
+        <v>2216.403333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>219.48</v>
+        <v>82.31</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>552.9400000000001</v>
+        <v>696.8499999999999</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>532.1800000000001</v>
+        <v>718.0199999999999</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>552.9400000000001</v>
+        <v>718.0199999999999</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>552.9400000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>552.9400000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>552.9400000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>565.7600000000001</v>
+        <v>860.1999999999998</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>34</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>664.66</v>
+        <v>344.54</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>702.64</v>
+        <v>344.54</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>702.64</v>
+        <v>1944.54</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>702.64</v>
+        <v>1944.54</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>702.64</v>
+        <v>1944.54</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>702.64</v>
+        <v>1944.54</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>715.46</v>
+        <v>1944.54</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>715.46</v>
+        <v>1944.54</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>752.33</v>
+        <v>1944.54</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>752.33</v>
+        <v>1944.54</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>768.71</v>
+        <v>1944.54</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>37.84</v>
+        <v>20.53</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1248.72</v>
+        <v>171.44</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>2624.83</v>
+        <v>249.2</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>2610.46</v>
+        <v>249.2</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>2610.46</v>
+        <v>273.32</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>2610.46</v>
+        <v>273.32</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>2637.65</v>
+        <v>273.32</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>2637.65</v>
+        <v>273.32</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>2623.28</v>
+        <v>273.32</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>81.52</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>360.58</v>
+        <v>143.83</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>360.58</v>
+        <v>160.76</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>360.58</v>
+        <v>160.76</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>370.02</v>
+        <v>160.76</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>382.84</v>
+        <v>160.76</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>382.84</v>
+        <v>160.76</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>407.46</v>
+        <v>160.76</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v/>
+        <v>34.34</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>44.07</v>
+        <v>72.7</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>178.7</v>
+        <v>117.96</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>178.7</v>
+        <v>117.96</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>178.7</v>
+        <v>117.96</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>178.7</v>
+        <v>117.96</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>265.15</v>
+        <v>117.96</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>41.39</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1548.99</v>
+        <v>124.57</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1801.37</v>
+        <v>124.57</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1818.99</v>
+        <v>131.61</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>1818.99</v>
+        <v>131.61</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>1843.61</v>
+        <v>112.51</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>1853.22</v>
+        <v>112.51</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>2467.57</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>93.92999999999999</v>
+        <v>11</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1036.1</v>
+        <v>169.14</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1179.28</v>
+        <v>207.59</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1187.95</v>
+        <v>207.59</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>1600.41</v>
+        <v>207.59</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>1623.12</v>
+        <v>207.59</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>2467.57</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>917.55</v>
+        <v>160.47</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>959.28</v>
+        <v>197.18</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>2915.36</v>
+        <v>569.98</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>2967.11</v>
+        <v>569.98</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>2967.11</v>
+        <v>569.98</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>2967.11</v>
+        <v>569.98</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>2967.11</v>
+        <v>569.98</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>2967.11</v>
+        <v>569.98</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>2978.28</v>
+        <v>569.98</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>83.78</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>757.41</v>
+        <v>136.83</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1050.41</v>
+        <v>136.83</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1081.71</v>
+        <v>136.83</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1081.71</v>
+        <v>136.83</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>1081.71</v>
+        <v>136.83</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>1081.71</v>
+        <v>136.83</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>2881.71</v>
+        <v>136.83</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>2903.71</v>
+        <v>136.83</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2396.65</v>
+        <v>1541.24</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>250.54</v>
+        <v>275.55</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1196.15</v>
+        <v>1481.21</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1549.83</v>
+        <v>1481.21</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>2349.83</v>
+        <v>1481.21</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1481.21</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1531.84</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1531.84</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1531.84</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1531.84</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>2390.69</v>
+        <v>1541.24</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2396.65</v>
+        <v>1541.24</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2396.65</v>
+        <v>1541.24</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3465.420000000001</v>
+        <v>224.36</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>78.53999999999999</v>
+        <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1226.28</v>
+        <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>3403.56</v>
+        <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v>3403.56</v>
+        <v/>
       </c>
       <c r="W21" s="22" t="n">
-        <v>3426.77</v>
+        <v>102.64</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>3426.77</v>
+        <v>224.36</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>3438.66</v>
+        <v>224.36</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>3438.66</v>
+        <v>224.36</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>3438.66</v>
+        <v>224.36</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>3438.66</v>
+        <v>224.36</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>224.36</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>82.31</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>696.8499999999999</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>718.0199999999999</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>718.0199999999999</v>
+        <v>188.43</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>188.43</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>1944.54</v>
+        <v>270.4</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10552,28 +10552,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>344.54</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>344.54</v>
+        <v>242.08</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1944.54</v>
+        <v>261</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>1944.54</v>
+        <v>261</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>1944.54</v>
+        <v>261</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>1944.54</v>
+        <v>270.4</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>1944.54</v>
+        <v>270.4</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>1944.54</v>
+        <v>270.4</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>273.32</v>
+        <v>2551.77</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>20.53</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>171.44</v>
+        <v>634.33</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>249.2</v>
+        <v>840.1400000000001</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>249.2</v>
+        <v>2508.03</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>273.32</v>
+        <v>2508.03</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>273.32</v>
+        <v>2517.43</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>273.32</v>
+        <v>2517.43</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>273.32</v>
+        <v>2551.77</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>160.76</v>
+        <v>1073.42</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v/>
+        <v>132.77</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>143.83</v>
+        <v>356.51</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>160.76</v>
+        <v>471.59</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>160.76</v>
+        <v>1052.71</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>160.76</v>
+        <v>1052.71</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>160.76</v>
+        <v>1052.71</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>160.76</v>
+        <v>1073.42</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>117.96</v>
+        <v>324.32</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>34.34</v>
+        <v>36.41</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>72.7</v>
+        <v>92.31</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>117.96</v>
+        <v>216.77</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>117.96</v>
+        <v>285.88</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>117.96</v>
+        <v>285.88</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>117.96</v>
+        <v>324.32</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>131.61</v>
+        <v>2865.41</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>7.54</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>124.57</v>
+        <v>899.8</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>124.57</v>
+        <v>1186.03</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>131.61</v>
+        <v>1203.63</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>131.61</v>
+        <v>2865.41</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>207.59</v>
+        <v>1273.66</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>11</v>
+        <v>127.8</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>169.14</v>
+        <v>1231.31</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>207.59</v>
+        <v>1231.31</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>207.59</v>
+        <v>1273.66</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>197.18</v>
+        <v>232.86</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v/>
+        <v>65.95</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>160.47</v>
+        <v>161.62</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>197.18</v>
+        <v>232.86</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>136.83</v>
+        <v>139.63</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>136.83</v>
+        <v>139.63</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>275.55</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>275.55</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06688351861947486</v>
+        <v>0.07535062197313121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05052136450178114</v>
+        <v>0.041444912394294</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.07223468202686074</v>
+        <v>0.05407110030393084</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05756228418278427</v>
+        <v>0.05347635838041045</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4808467591774199</v>
+        <v>0.8100485872342269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.373867916025206</v>
+        <v>0.6226638171293341</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.47216762000518</v>
+        <v>0.5489462696269259</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4206624292218161</v>
+        <v>0.7041021545584329</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5558177723377802</v>
+        <v>0.9504254394599658</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4627776641037384</v>
+        <v>0.7351716287209673</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5490727207102</v>
+        <v>0.6576481264517696</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5050485033556095</v>
+        <v>0.8290543825632978</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.583050439803419</v>
+        <v>0.9969268417120861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7276522159289929</v>
+        <v>0.7688044175110343</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7939418634834174</v>
+        <v>0.8341339074177669</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.6473748148229076</v>
+        <v>0.8681295704996371</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9641746382821208</v>
+        <v>0.9969268417120861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9475191717130533</v>
+        <v>0.9838720059785639</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9583087685027243</v>
+        <v>0.9723945892511014</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9557743503433891</v>
+        <v>0.990356403642585</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9761659747529488</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9840439895010005</v>
+        <v>0.9914000547239146</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9856667848003297</v>
+        <v>0.9924664458672788</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9800891513951902</v>
+        <v>0.9946582544973358</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9838379359707093</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.989173966027745</v>
+        <v>0.9948155648544394</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9898578242685614</v>
+        <v>0.9952152684218921</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9864987353263918</v>
+        <v>0.9963743066525511</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9951894290261664</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9961499797778796</v>
+        <v>0.9988881187205323</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9952435808087613</v>
+        <v>0.9982369437902424</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9956694727343971</v>
+        <v>0.9984128036882672</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9951894290261664</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9961499797778796</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9952435808087613</v>
+        <v>0.9990670586343724</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9956694727343971</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4072,17 +4072,17 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9967219020155904</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4110,17 +4110,17 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4148,17 +4148,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4186,17 +4186,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,17 +4224,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4338,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4376,17 +4376,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.999750205911343</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.999750205911343</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9998750873544513</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4833,16 +4833,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>9.040463117689185</v>
+        <v>8.350706283487579</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.386844641607584</v>
+        <v>1.453569762015866</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.02979788844356</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>1.096789727126806</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4851,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>2.664031949413429</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.00763435599002</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.0010193855447</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>1</v>
@@ -4908,16 +4908,16 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>4.774287538915942</v>
+        <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.295681979684822</v>
+        <v>1.117708405756796</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.516185646167644</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.017388491933459</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.002493004111784</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4956,22 +4956,22 @@
         <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.001235057267436</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,22 +4983,22 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>15.61344537815126</v>
+        <v>2.117064647641234</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2.775516195322439</v>
+        <v>1.622558459422283</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.006819330348224</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.003469739725748</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -5010,40 +5010,40 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.007782101167315</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,19 +5058,19 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>8.466164500060744</v>
+        <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.030379565186195</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1</v>
+        <v>1.056514409568917</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.198016768335144</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>0.8548742496770763</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5133,13 +5133,13 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v/>
+        <v>15.37636363636364</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1</v>
+        <v>1.227326475109377</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>5.643872990073721</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5208,16 +5208,16 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>8.350706283487579</v>
+        <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.453569762015866</v>
+        <v>1.228765501339814</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>2.890658281772999</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.096789727126806</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.117708405756796</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
@@ -5358,10 +5358,10 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>2.117064647641234</v>
+        <v>5.375467247323535</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.622558459422283</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>1</v>
@@ -5370,19 +5370,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.034181513762397</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>1.006136411113432</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.056514409568917</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.8548742496770763</v>
+        <v>2.1858924395947</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>15.37636363636364</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.227326475109377</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,10 +5586,10 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.228765501339814</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>2.890658281772999</v>
+        <v>1.078155981493721</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.036015325670498</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -5661,22 +5661,22 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1</v>
+        <v>1.324452572005108</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v>2.985252457923679</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.00374796154751</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.013640895675352</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
@@ -5733,31 +5733,31 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.375467247323535</v>
+        <v>2.685169842584921</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v>1.322795994502258</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v>2.232256833266185</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.034181513762397</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.01967303435894</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.006136411113432</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v/>
+        <v>2.535292502059874</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v/>
+        <v>2.348282959592677</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v/>
+        <v>1.318817179499008</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>2.1858924395947</v>
+        <v>1.134462012033021</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.02898371978293</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>119.3368700265252</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v/>
+        <v>1.318104023116248</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v/>
+        <v>1.01483942227431</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.380640229971005</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,22 +5958,22 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v/>
+        <v>9.634663536776213</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.078155981493721</v>
+        <v>1.034394263020685</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.067333511298149</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.036015325670498</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v/>
+        <v>2.450644427596664</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.324452572005108</v>
+        <v>1.440787031308006</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>2.985252457923679</v>
+        <v>1.063901056428755</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.00374796154751</v>
+        <v>1.002421893921046</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.013640895675352</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>2.685169842584921</v>
+        <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.322795994502258</v>
+        <v>1.154264842798825</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>2.232256833266185</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.01967303435894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.535292502059874</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>2.348282959592677</v>
+        <v>1.173243964161138</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.318817179499008</v>
+        <v>1.06494112160429</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.134462012033021</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>119.3368700265252</v>
+        <v>18.22928338489841</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.318104023116248</v>
+        <v>1.341993724885782</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.01483942227431</v>
+        <v>1.086296828001094</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.380640229971005</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>9.634663536776213</v>
+        <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v>1.012329911304186</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.034394263020685</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2.450644427596664</v>
+        <v>27.04578422484134</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.440787031308006</v>
+        <v>1.167356653202152</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>5.435836782968657</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.05942968823410759</v>
+        <v>0.07023498359134171</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.07223468202686074</v>
+        <v>0.05407110030393084</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.05052136450178114</v>
+        <v>0.041444912394294</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.06688351861947486</v>
+        <v>0.07535062197313121</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02309129748391613</v>
+        <v>0.02843646393976051</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01634147156640671</v>
+        <v>0.01870921784322373</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.0102367719933289</v>
+        <v>0.03643882900258487</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.07511970031946662</v>
+        <v>0.04941713211057865</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05756228418278427</v>
+        <v>0.05347635838041045</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>7.052449753947609</v>
+        <v>8.446112594715474</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.53657781492833</v>
+        <v>10.15230440182145</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>7.400194347720463</v>
+        <v>15.02389029576186</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>7.189316129032258</v>
+        <v>10.75039018952062</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>15.82743097578277</v>
+        <v>18.21442887858894</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>23.6696845971444</v>
+        <v>23.41919309103141</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>27.32852806710858</v>
+        <v>16.90363479756947</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>6.042653982186438</v>
+        <v>16.240810503905</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>7.294755238376361</v>
+        <v>12.88714024264124</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4191248901638152</v>
+        <v>0.5932125795004659</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.47216762000518</v>
+        <v>0.5489462696269259</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.373867916025206</v>
+        <v>0.6226638171293341</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4808467591774199</v>
+        <v>0.8100485872342269</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3654759170679488</v>
+        <v>0.5179539499893269</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.38679747783005</v>
+        <v>0.438154785252627</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.27975591073628</v>
+        <v>0.6159486579107774</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.4539223562760768</v>
+        <v>0.802574278254347</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.4206624292218161</v>
+        <v>0.7041021545584329</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.384105077903612</v>
+        <v>1.173644454041037</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.162876693459362</v>
+        <v>1.198019119245895</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.237810585684325</v>
+        <v>1.180687890474073</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.155914564732873</v>
+        <v>1.173294360903748</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.362777556103657</v>
+        <v>1.276502120027395</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.331465342429346</v>
+        <v>1.327601061534217</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.459070430087383</v>
+        <v>1.214996021276682</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.252963684808085</v>
+        <v>1.173893429797374</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.196862575208599</v>
+        <v>1.17699112568891</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5801128887515303</v>
+        <v>0.6962206539980994</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5490727207102</v>
+        <v>0.6576481264517696</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4627776641037384</v>
+        <v>0.7351716287209673</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.5558177723377802</v>
+        <v>0.9504254394599658</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4980623770766019</v>
+        <v>0.6611693152379393</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5150074362697948</v>
+        <v>0.5816947580176843</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4081835769974716</v>
+        <v>0.7483751686723062</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.5687482281364415</v>
+        <v>0.942136672167147</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5050485033556095</v>
+        <v>0.8290543825632978</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.37388995217372</v>
+        <v>1.241621247156997</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.445968509337872</v>
+        <v>1.268358980840099</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.572358115723318</v>
+        <v>1.045748213717905</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.048995675958863</v>
+        <v>1.048926933477857</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.568460281763391</v>
+        <v>1.306633043939665</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.555437441925059</v>
+        <v>1.352623194864703</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.610619356246265</v>
+        <v>1.041588878175804</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.122683621598001</v>
+        <v>1.050412649868461</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.310676895841091</v>
+        <v>1.047337573597881</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7970112689821983</v>
+        <v>0.8644423567135801</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7939418634834174</v>
+        <v>0.8341339074177669</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7276522159289929</v>
+        <v>0.7688044175110343</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.583050439803419</v>
+        <v>0.9969268417120861</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7811910562853113</v>
+        <v>0.863905674928853</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8010618492438725</v>
+        <v>0.7868138220259302</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.6574283700139653</v>
+        <v>0.7794992523920157</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.6385243205416663</v>
+        <v>0.9896322783493469</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.6473748148229076</v>
+        <v>0.8681295704996371</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.104813853830609</v>
+        <v>1.130286936301582</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.207026373818037</v>
+        <v>1.165753580574789</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.302159398364996</v>
+        <v>1.279742914542297</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.653672774189488</v>
+        <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.089455502511296</v>
+        <v>1.081303340441893</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.125512748179182</v>
+        <v>1.131633976479014</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.230106704995167</v>
+        <v>1.241328956878192</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.460213409990335</v>
+        <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.477916086277242</v>
+        <v>1.139871457271148</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.880549091630647</v>
+        <v>0.9770679029791121</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9583087685027243</v>
+        <v>0.9723945892511014</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9475191717130533</v>
+        <v>0.9838720059785639</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9641746382821208</v>
+        <v>0.9969268417120861</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8510728947826443</v>
+        <v>0.9341440921272764</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9016053234039686</v>
+        <v>0.8903852541678546</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8087070460082225</v>
+        <v>0.9676149938591115</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9323817754599083</v>
+        <v>0.9896322783493469</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9557743503433891</v>
+        <v>0.990356403642585</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.011703622308644</v>
+        <v>1.016405069962918</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.028548227039965</v>
+        <v>1.020641678633399</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.038547840379749</v>
+        <v>1.007651451306274</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.012436892648611</v>
+        <v>1.001014215926571</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.063850430348142</v>
+        <v>1.06397789844925</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.101096514717892</v>
+        <v>1.113392151738223</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.220683735529205</v>
+        <v>1.022813984325678</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.04606999119351</v>
+        <v>1.000807297973682</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.02549236651418</v>
+        <v>1.004332833616422</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8908547056233119</v>
+        <v>0.9930967702860061</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9856667848003297</v>
+        <v>0.9924664458672788</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9840439895010005</v>
+        <v>0.9914000547239146</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9761659747529488</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9054142653721553</v>
+        <v>0.993908667990362</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9927544792512077</v>
+        <v>0.9913479540139322</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9871755378701058</v>
+        <v>0.989690147162304</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9753365956443357</v>
+        <v>0.9904312064823486</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9800891513951902</v>
+        <v>0.9946582544973358</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.002462096897582</v>
+        <v>1.002445307462289</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004251984070946</v>
+        <v>1.002769688150224</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.005213157726156</v>
+        <v>1.003445138129911</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.007859279483391</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.00328656109751</v>
+        <v>1.003093797779413</v>
       </c>
       <c r="S7" s="22" t="n">
         <v>1.00464069666912</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.00928139333824</v>
+        <v>1.003278839059824</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.018562786676479</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.006536218604773</v>
+        <v>1.001722569064955</v>
       </c>
     </row>
     <row r="8">
@@ -7087,50 +7087,50 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8930480762302234</v>
+        <v>0.9955251972291614</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9898578242685614</v>
+        <v>0.9952152684218921</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.989173966027745</v>
+        <v>0.9948155648544394</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9838379359707093</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9083899646738582</v>
+        <v>0.9969836204203297</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9973615516563226</v>
+        <v>0.9959484991620632</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9963379023309664</v>
+        <v>0.9929351818739424</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9934415608070453</v>
+        <v>0.9904312064823486</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9864987353263918</v>
+        <v>0.9963743066525511</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.114451610729503</v>
+        <v>1.002818839104538</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.005440939504802</v>
+        <v>1.003036202783687</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.007052362870152</v>
+        <v>1.004093777791554</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.01153797047301</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.098686637946399</v>
+        <v>1.000802405627962</v>
       </c>
       <c r="S8" s="22" t="n">
         <v>1.001136741306279</v>
@@ -7139,10 +7139,10 @@
         <v>1.002273482612559</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.004546965225117</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.009295166671581</v>
+        <v>1.002046888895777</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9952588670136566</v>
+        <v>0.9983314225846642</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9952435808087613</v>
+        <v>0.9982369437902424</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9961499797778796</v>
+        <v>0.9988881187205323</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9951894290261664</v>
+        <v>0.9979379407925767</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9980359162317692</v>
+        <v>0.9977836056883409</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9984952937293851</v>
+        <v>0.9970806349599876</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9986030592281488</v>
+        <v>0.9951926027453307</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9979587050372211</v>
+        <v>0.9904312064823486</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9956694727343971</v>
+        <v>0.9984128036882672</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.001436989950215</v>
+        <v>1.000785406807305</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1</v>
+        <v>1.00083158096812</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1</v>
+        <v>1.001113118935574</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1</v>
+        <v>1.002066320081773</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.000477147249376</v>
+        <v>1.001811482486433</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1</v>
+        <v>1.002415309981911</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1</v>
+        <v>1.004830619963822</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1</v>
+        <v>1.009661239927643</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1</v>
+        <v>1.001589719508674</v>
       </c>
     </row>
     <row r="10">
@@ -7215,47 +7215,47 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9966890440034174</v>
+        <v>0.9991155188799081</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9952435808087613</v>
+        <v>0.9990670586343724</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9961499797778796</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9951894290261664</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9985121263239779</v>
+        <v>0.9995910732152955</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9984952937293851</v>
+        <v>0.9994888937703764</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9986030592281488</v>
+        <v>1</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9979587050372211</v>
+        <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9956694727343971</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000624112797101</v>
+        <v>1.000885264119492</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.001485386326861</v>
+        <v>1.000933812557991</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.003287828389349</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.004833824429326</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.000409094074229</v>
@@ -7264,13 +7264,13 @@
         <v>1.000511367592786</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.001022735185572</v>
+        <v>1</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.002045470371144</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.004060826409337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7279,41 +7279,41 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9973110903905102</v>
+        <v>1</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9967219020155904</v>
+        <v>1</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E11" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9989206117179028</v>
+        <v>1</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9990058918641478</v>
+        <v>1</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.0021985775096</v>
+        <v>1</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002791003290589</v>
+        <v>1</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
@@ -7322,10 +7322,10 @@
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.000733936091364</v>
+        <v>1</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.00064850843061</v>
+        <v>1</v>
       </c>
       <c r="T11" s="22" t="n">
         <v>1</v>
@@ -7343,31 +7343,31 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I12" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -7407,31 +7407,31 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7471,31 +7471,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,31 +7535,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,31 +7599,31 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,31 +7663,31 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9995037561239176</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9994251499614427</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9996537556072502</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9996243657132413</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9997124923438278</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.000246572147343</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.000246572147343</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.000325242915803</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.000176436752491</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.000176436752491</v>
+        <v>1</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.000205842877906</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.000162621457902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.999750205911343</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.999750205911343</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.999750205911343</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9998301312695047</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9998301312695047</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9998301312695047</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9998750873544513</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.000249856501334</v>
+        <v>1</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.000249856501334</v>
+        <v>1</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.000249856501334</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.000169897590783</v>
+        <v>1</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.000169897590783</v>
+        <v>1</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.000169897590783</v>
+        <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.000124928250667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>83.78</v>
+        <v>20.53</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>757.41</v>
+        <v>171.44</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1050.41</v>
+        <v>249.2</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1081.71</v>
+        <v>249.2</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>1081.71</v>
+        <v>273.32</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>1081.71</v>
+        <v>273.32</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1081.71</v>
+        <v>273.32</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>2881.71</v>
+        <v>273.32</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>2903.71</v>
+        <v>273.32</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>2906.67</v>
+        <v>273.32</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>250.54</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1196.15</v>
+        <v>143.83</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1549.83</v>
+        <v>160.76</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>2349.83</v>
+        <v>160.76</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>2390.69</v>
+        <v>160.76</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>2396.65</v>
+        <v>160.76</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>2399.61</v>
+        <v>160.76</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>78.53999999999999</v>
+        <v>34.34</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1226.28</v>
+        <v>72.7</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>3403.56</v>
+        <v>117.96</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>3403.56</v>
+        <v>117.96</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>3426.77</v>
+        <v>117.96</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>3426.77</v>
+        <v>117.96</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>3438.66</v>
+        <v>117.96</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>3438.66</v>
+        <v>117.96</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>3438.66</v>
+        <v>117.96</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>3438.66</v>
+        <v>117.96</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>3465.420000000001</v>
+        <v>117.96</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>2216.403333333333</v>
+        <v>1976.403333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>82.31</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>696.8499999999999</v>
+        <v>124.57</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>718.0199999999999</v>
+        <v>124.57</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>718.0199999999999</v>
+        <v>131.61</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>131.61</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>860.1999999999998</v>
+        <v>112.51</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>344.54</v>
+        <v>169.14</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>344.54</v>
+        <v>207.59</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>1944.54</v>
+        <v>207.59</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>20.53</v>
+        <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>171.44</v>
+        <v>160.47</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>249.2</v>
+        <v>197.18</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>249.2</v>
+        <v>569.98</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>273.32</v>
+        <v>569.98</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>143.83</v>
+        <v>136.83</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>160.76</v>
+        <v>136.83</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>34.34</v>
+        <v>275.55</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>72.7</v>
+        <v>1481.21</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>117.96</v>
+        <v>1481.21</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>117.96</v>
+        <v>1481.21</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>117.96</v>
+        <v>1481.21</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>117.96</v>
+        <v>1531.84</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>117.96</v>
+        <v>1531.84</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>117.96</v>
+        <v>1531.84</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>117.96</v>
+        <v>1531.84</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>117.96</v>
+        <v>1541.24</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9624,49 +9624,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>124.57</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>124.57</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>131.61</v>
+        <v/>
       </c>
       <c r="W16" s="22" t="n">
-        <v>131.61</v>
+        <v>102.64</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>112.51</v>
+        <v>224.36</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>169.14</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>207.59</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>207.59</v>
+        <v>188.43</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>160.47</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>197.18</v>
+        <v>242.08</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>569.98</v>
+        <v>261</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>569.98</v>
+        <v>261</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>569.98</v>
+        <v>261</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>569.98</v>
+        <v>270.4</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>136.83</v>
+        <v>634.33</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>136.83</v>
+        <v>840.1400000000001</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>136.83</v>
+        <v>2508.03</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>136.83</v>
+        <v>2508.03</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>136.83</v>
+        <v>2517.43</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>136.83</v>
+        <v>2517.43</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>136.83</v>
+        <v>2551.77</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>1541.24</v>
+        <v>1073.42</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>275.55</v>
+        <v>132.77</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1481.21</v>
+        <v>356.51</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1481.21</v>
+        <v>471.59</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1481.21</v>
+        <v>1052.71</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1481.21</v>
+        <v>1052.71</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1531.84</v>
+        <v>1052.71</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1531.84</v>
+        <v>1073.42</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1531.84</v>
+        <v>1073.42</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1531.84</v>
+        <v>1073.42</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>1541.24</v>
+        <v>1073.42</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>1541.24</v>
+        <v>1073.42</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>1541.24</v>
+        <v>1073.42</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>224.36</v>
+        <v>333.72</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v/>
+        <v>36.41</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v/>
+        <v>92.31</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v/>
+        <v>216.77</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v/>
+        <v>285.88</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>102.64</v>
+        <v>285.88</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>224.36</v>
+        <v>324.32</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>224.36</v>
+        <v>324.32</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>224.36</v>
+        <v>324.32</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>224.36</v>
+        <v>333.72</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>224.36</v>
+        <v>333.72</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>224.36</v>
+        <v>333.72</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>7.54</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>899.8</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v/>
+        <v>1186.03</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>188.43</v>
+        <v>1203.63</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>188.43</v>
+        <v>2865.41</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>270.4</v>
+        <v>1359.42</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>127.8</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>1231.31</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>242.08</v>
+        <v>1231.31</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>261</v>
+        <v>1273.66</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>261</v>
+        <v>1359.42</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>261</v>
+        <v>1359.42</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>270.4</v>
+        <v>1359.42</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>270.4</v>
+        <v>1359.42</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>270.4</v>
+        <v>1359.42</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>2551.77</v>
+        <v>248.34</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>65.95</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>634.33</v>
+        <v>161.62</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>840.1400000000001</v>
+        <v>232.86</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>2508.03</v>
+        <v>247.74</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>2508.03</v>
+        <v>247.74</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2517.43</v>
+        <v>248.34</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>2517.43</v>
+        <v>248.34</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>2551.77</v>
+        <v>248.34</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>1073.42</v>
+        <v>161.17</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>132.77</v>
+        <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>356.51</v>
+        <v>139.63</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>471.59</v>
+        <v>161.17</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>1052.71</v>
+        <v>161.17</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>1052.71</v>
+        <v>161.17</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>1052.71</v>
+        <v>161.17</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>1073.42</v>
+        <v>161.17</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>324.32</v>
+        <v>182.68</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>36.41</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>92.31</v>
+        <v>146.21</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>216.77</v>
+        <v>171.54</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>285.88</v>
+        <v>182.68</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>285.88</v>
+        <v>182.68</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>324.32</v>
+        <v>182.68</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2865.41</v>
+        <v>3178.07</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>7.54</v>
+        <v>119.59</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>899.8</v>
+        <v>2180.04</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1186.03</v>
+        <v>2925.6</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1203.63</v>
+        <v>3178.07</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2865.41</v>
+        <v>3178.07</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>1273.66</v>
+        <v>2290.69</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>1716.74</v>
+        <v>1454.74</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>127.8</v>
+        <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>1231.31</v>
+        <v>2262.79</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>1231.31</v>
+        <v>2290.69</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>1273.66</v>
+        <v>2290.69</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>232.86</v>
+        <v>696.48</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>1716.74</v>
+        <v>1454.74</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>65.95</v>
+        <v>22.06</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>161.62</v>
+        <v>596.63</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>232.86</v>
+        <v>696.48</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>139.63</v>
+        <v>367.68</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>1716.74</v>
+        <v>1451.2</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>67.64</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>139.63</v>
+        <v>367.68</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>93.67</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>1716.74</v>
+        <v>1451.2</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>93.67</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07535062197313121</v>
+        <v>0.12572812425559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.041444912394294</v>
+        <v>0.06995979754219073</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05407110030393084</v>
+        <v>0.06214402029746728</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05347635838041045</v>
+        <v>0.08989736349052718</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8100485872342269</v>
+        <v>0.9090382676449865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6226638171293341</v>
+        <v>0.8095717474759504</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5489462696269259</v>
+        <v>0.5765082205517935</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7041021545584329</v>
+        <v>0.8564266382540261</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9504254394599658</v>
+        <v>0.9450240253505573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7351716287209673</v>
+        <v>0.9404261911227609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6576481264517696</v>
+        <v>0.6860394807113659</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8290543825632978</v>
+        <v>0.9427195021274652</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9969268417120861</v>
+        <v>0.9853757075029587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7688044175110343</v>
+        <v>0.9808531044934358</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8341339074177669</v>
+        <v>0.858122751684851</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8681295704996371</v>
+        <v>0.9831092046864637</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9969268417120861</v>
+        <v>0.9853757075029587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9838720059785639</v>
+        <v>0.9923226773793956</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9723945892511014</v>
+        <v>0.9749717509578071</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.990356403642585</v>
+        <v>0.9888369912908822</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9914000547239146</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9924664458672788</v>
+        <v>0.9924703240896059</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9946582544973358</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9948155648544394</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9952152684218921</v>
+        <v>0.9952076127546774</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9963743066525511</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9988881187205323</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9982369437902424</v>
+        <v>0.9983425792242125</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9984128036882672</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9990670586343724</v>
+        <v>0.9991697997892703</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
@@ -4833,16 +4833,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>8.350706283487579</v>
+        <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.453569762015866</v>
+        <v>1.117708405756796</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.096789727126806</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4908,10 +4908,10 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v/>
+        <v>2.117064647641234</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.117708405756796</v>
+        <v>1.622558459422283</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>1</v>
@@ -4983,19 +4983,19 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.117064647641234</v>
+        <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.622558459422283</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v>1.056514409568917</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>0.8548742496770763</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
@@ -5058,19 +5058,19 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v/>
+        <v>15.37636363636364</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v>1.227326475109377</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.056514409568917</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>0.8548742496770763</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5133,13 +5133,13 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>15.37636363636364</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.227326475109377</v>
+        <v>1.228765501339814</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1</v>
+        <v>2.890658281772999</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5211,10 +5211,10 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.228765501339814</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>2.890658281772999</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v/>
+        <v>5.375467247323534</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.034181513762397</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>1.006136411113432</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -5358,19 +5358,19 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>5.375467247323535</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.034181513762397</v>
+        <v>2.1858924395947</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5382,28 +5382,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.006136411113432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5442,10 +5442,10 @@
         <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>2.1858924395947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5514,40 +5514,40 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v/>
+        <v>1.078155981493721</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.036015325670498</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,22 +5586,22 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1.324452572005108</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.078155981493721</v>
+        <v>2.985252457923679</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.00374796154751</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.036015325670498</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>1.013640895675352</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
@@ -5658,25 +5658,25 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v/>
+        <v>2.685169842584921</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.324452572005108</v>
+        <v>1.322795994502258</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>2.985252457923679</v>
+        <v>2.232256833266185</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.00374796154751</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>1.01967303435894</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.013640895675352</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
@@ -5733,28 +5733,28 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>2.685169842584921</v>
+        <v>2.535292502059874</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.322795994502258</v>
+        <v>2.348282959592677</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>2.232256833266185</v>
+        <v>1.318817179499008</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.134462012033021</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.01967303435894</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.02898371978293</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5808,19 +5808,19 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>2.535292502059874</v>
+        <v>119.3368700265252</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>2.348282959592677</v>
+        <v>1.318104023116248</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.318817179499008</v>
+        <v>1.01483942227431</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>2.380640229971005</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.134462012033021</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.02898371978293</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5883,16 +5883,16 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>119.3368700265252</v>
+        <v>9.634663536776213</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.318104023116248</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.01483942227431</v>
+        <v>1.034394263020685</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2.380640229971005</v>
+        <v>1.067333511298149</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>1</v>
@@ -5958,19 +5958,19 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>9.634663536776213</v>
+        <v>2.450644427596664</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1</v>
+        <v>1.440787031308006</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.034394263020685</v>
+        <v>1.063901056428755</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.067333511298149</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.002421893921046</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>2.450644427596664</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.440787031308006</v>
+        <v>1.154264842798825</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.063901056428755</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.002421893921046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.154264842798825</v>
+        <v>1.173243964161138</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.06494112160429</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v/>
+        <v>18.22928338489841</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.173243964161138</v>
+        <v>1.341993724885782</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.06494112160429</v>
+        <v>1.086296828001094</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.016447088956505</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,13 +6258,13 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>18.22928338489841</v>
+        <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.341993724885782</v>
+        <v>1.012329911304186</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.086296828001094</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v/>
+        <v>27.04578422484134</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.012329911304186</v>
+        <v>1.167356653202152</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>1</v>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>27.04578422484134</v>
+        <v>5.435836782968657</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.167356653202152</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>5.435836782968657</v>
+        <v>3.859186505818299</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07023498359134171</v>
+        <v>0.07636290996996678</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.05407110030393084</v>
+        <v>0.06214402029746728</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.041444912394294</v>
+        <v>0.06995979754219073</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.07535062197313121</v>
+        <v>0.12572812425559</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02843646393976051</v>
+        <v>0.02970225324481433</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01870921784322373</v>
+        <v>0.02176321615225114</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03643882900258487</v>
+        <v>0.0608155577414959</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.04941713211057865</v>
+        <v>0.07529614284674056</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05347635838041045</v>
+        <v>0.08989736349052718</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>8.446112594715474</v>
+        <v>8.015970713653552</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>10.15230440182145</v>
+        <v>9.276970137950496</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>15.02389029576186</v>
+        <v>11.571956693953</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>10.75039018952062</v>
+        <v>7.230190325571249</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>18.21442887858894</v>
+        <v>17.84013556378316</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>23.41919309103141</v>
+        <v>21.24585902600773</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>16.90363479756947</v>
+        <v>13.64252272463168</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>16.240810503905</v>
+        <v>12.11360250454277</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>12.88714024264124</v>
+        <v>9.401073509762123</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5932125795004659</v>
+        <v>0.6121228499286165</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5489462696269259</v>
+        <v>0.5765082205517935</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6226638171293341</v>
+        <v>0.8095717474759504</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8100485872342269</v>
+        <v>0.9090382676449865</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5179539499893269</v>
+        <v>0.5298922244373061</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.438154785252627</v>
+        <v>0.4623782223232621</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.6159486579107774</v>
+        <v>0.8296776284995077</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.802574278254347</v>
+        <v>0.9121075445706864</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.7041021545584329</v>
+        <v>0.8564266382540261</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.173644454041037</v>
+        <v>1.163797665177797</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.198019119245895</v>
+        <v>1.189990803695282</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.180687890474073</v>
+        <v>1.161634152939234</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.173294360903748</v>
+        <v>1.039586625763069</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.276502120027395</v>
+        <v>1.252630027289718</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.327601061534217</v>
+        <v>1.300300973073032</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.214996021276682</v>
+        <v>1.141531516058681</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.173893429797374</v>
+        <v>1.059895521502113</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.17699112568891</v>
+        <v>1.100610389351151</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6962206539980994</v>
+        <v>0.7123871435489031</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6576481264517696</v>
+        <v>0.6860394807113659</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7351716287209673</v>
+        <v>0.9404261911227609</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9504254394599658</v>
+        <v>0.9450240253505573</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6611693152379393</v>
+        <v>0.6637589115575122</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5816947580176843</v>
+        <v>0.6012308524147164</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7483751686723062</v>
+        <v>0.9471031611010139</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.942136672167147</v>
+        <v>0.9667387016187593</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8290543825632978</v>
+        <v>0.9427195021274652</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.241621247156997</v>
+        <v>1.233366635197932</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.268358980840099</v>
+        <v>1.250835813115375</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.045748213717905</v>
+        <v>1.042987864175082</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.048926933477857</v>
+        <v>1.042699107186648</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>1.306633043939665</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.352623194864703</v>
+        <v>1.323237928625977</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.041588878175804</v>
+        <v>1.03585650100569</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.050412649868461</v>
+        <v>1.028765609333698</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.047337573597881</v>
+        <v>1.042843485680865</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8644423567135801</v>
+        <v>0.8786345341971767</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8341339074177669</v>
+        <v>0.858122751684851</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7688044175110343</v>
+        <v>0.9808531044934358</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9969268417120861</v>
+        <v>0.9853757075029587</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.863905674928853</v>
+        <v>0.8672893270504712</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7868138220259302</v>
+        <v>0.7955714677752801</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7794992523920157</v>
+        <v>0.9810629665495246</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9896322783493469</v>
+        <v>0.9945475294372909</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8681295704996371</v>
+        <v>0.9831092046864637</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.130286936301582</v>
+        <v>1.111737937534328</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.165753580574789</v>
+        <v>1.136168163638049</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.279742914542297</v>
+        <v>1.011693466466503</v>
       </c>
       <c r="Q5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.081303340441893</v>
+        <v>1.076209144277324</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.131633976479014</v>
+        <v>1.120664478439096</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.241328956878192</v>
+        <v>1.011222251883025</v>
       </c>
       <c r="U5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.139871457271148</v>
+        <v>1.005846733233252</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9770679029791121</v>
+        <v>0.976811344894804</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9723945892511014</v>
+        <v>0.9749717509578071</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9838720059785639</v>
+        <v>0.9923226773793956</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9969268417120861</v>
+        <v>0.9853757075029587</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9341440921272764</v>
+        <v>0.9333847045058437</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8903852541678546</v>
+        <v>0.8915686839954104</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9676149938591115</v>
+        <v>0.9920727022732508</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9896322783493469</v>
+        <v>0.9945475294372909</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.990356403642585</v>
+        <v>0.9888369912908822</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.016405069962918</v>
+        <v>1.016708862092016</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.020641678633399</v>
+        <v>1.017947774501783</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.007651451306274</v>
+        <v>1.00661330491376</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.001014215926571</v>
+        <v>1.014841336543703</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.06397789844925</v>
+        <v>1.064843534710118</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.113392151738223</v>
+        <v>1.111914283004398</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.022813984325678</v>
+        <v>1.003144830479592</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.000807297973682</v>
+        <v>1.005482362985502</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.004332833616422</v>
+        <v>1.010727320728732</v>
       </c>
     </row>
     <row r="7">
@@ -7023,44 +7023,44 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9930967702860061</v>
+        <v>0.9931327509465679</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9924664458672788</v>
+        <v>0.9924703240896059</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9914000547239146</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
         <v>0.993908667990362</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9913479540139322</v>
+        <v>0.9913479540139319</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.989690147162304</v>
+        <v>0.9951926027453307</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9904312064823486</v>
+        <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9946582544973358</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.002445307462289</v>
+        <v>1.002463441094223</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.002769688150224</v>
+        <v>1.002758055932385</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.003445138129911</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="22" t="n">
         <v>1</v>
@@ -7072,13 +7072,13 @@
         <v>1.00464069666912</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.003278839059824</v>
+        <v>1</v>
       </c>
       <c r="U7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.001722569064955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7087,44 +7087,44 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9955251972291614</v>
+        <v>0.9955792749772683</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9952152684218921</v>
+        <v>0.9952076127546774</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9948155648544394</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
         <v>0.9969836204203297</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9959484991620632</v>
+        <v>0.995948499162063</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9929351818739424</v>
+        <v>0.9951926027453307</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9904312064823486</v>
+        <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9963743066525511</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.002818839104538</v>
+        <v>1.002845030351685</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.003036202783687</v>
+        <v>1.003150062790273</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.004093777791554</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="22" t="n">
         <v>1</v>
@@ -7136,13 +7136,13 @@
         <v>1.001136741306279</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.002273482612559</v>
+        <v>1</v>
       </c>
       <c r="U8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002046888895777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7151,47 +7151,47 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9983314225846642</v>
+        <v>0.9984117282320872</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9982369437902424</v>
+        <v>0.9983425792242125</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9988881187205323</v>
+        <v>0.9988852098177438</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9979379407925767</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
         <v>0.9977836056883409</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9970806349599876</v>
+        <v>0.9970806349599873</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0.9951926027453307</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9904312064823486</v>
+        <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9984128036882672</v>
+        <v>0.999442294046311</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000785406807305</v>
+        <v>1.000787049518811</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.00083158096812</v>
+        <v>1.000828593893792</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001113118935574</v>
+        <v>1.001116034326366</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.002066320081773</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.001811482486433</v>
@@ -7203,10 +7203,10 @@
         <v>1.004830619963822</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.009661239927643</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.001589719508674</v>
+        <v>1.000558017163183</v>
       </c>
     </row>
     <row r="10">
@@ -7215,10 +7215,10 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9991155188799081</v>
+        <v>0.999197527702368</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9990670586343724</v>
+        <v>0.9991697997892703</v>
       </c>
       <c r="D10" s="34" t="n">
         <v>1</v>
@@ -7230,7 +7230,7 @@
         <v>0.9995910732152955</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9994888937703764</v>
+        <v>0.9994888937703762</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>1</v>
@@ -7246,10 +7246,10 @@
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000885264119492</v>
+        <v>1.000803116776597</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000933812557991</v>
+        <v>1.000830890015796</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>20.53</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>171.44</v>
+        <v>143.83</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>249.2</v>
+        <v>160.76</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>249.2</v>
+        <v>160.76</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>273.32</v>
+        <v>160.76</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v/>
+        <v>34.34</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>143.83</v>
+        <v>72.7</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>34.34</v>
+        <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>72.7</v>
+        <v>124.57</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>117.96</v>
+        <v>124.57</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>117.96</v>
+        <v>131.61</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>117.96</v>
+        <v>131.61</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>124.57</v>
+        <v>169.14</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>124.57</v>
+        <v>207.59</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>131.61</v>
+        <v>207.59</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>131.61</v>
+        <v>207.59</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>169.14</v>
+        <v>160.47</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>207.59</v>
+        <v>197.18</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>160.47</v>
+        <v>136.83</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>197.18</v>
+        <v>136.83</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v/>
+        <v>275.55</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>275.55</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1481.21</v>
+        <v>102.64</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9630,43 +9630,43 @@
         <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v/>
+        <v>188.43</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>102.64</v>
+        <v>188.43</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9754,43 +9754,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v/>
+        <v>242.08</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>634.33</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>242.08</v>
+        <v>840.1400000000001</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>261</v>
+        <v>2508.03</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>261</v>
+        <v>2508.03</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>261</v>
+        <v>2517.43</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>270.4</v>
+        <v>2517.43</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v/>
+        <v>132.77</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>634.33</v>
+        <v>356.51</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>840.1400000000001</v>
+        <v>471.59</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>2508.03</v>
+        <v>1052.71</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>2508.03</v>
+        <v>1052.71</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>2517.43</v>
+        <v>1052.71</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>2517.43</v>
+        <v>1073.42</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>132.77</v>
+        <v>36.41</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>356.51</v>
+        <v>92.31</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>471.59</v>
+        <v>216.77</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1052.71</v>
+        <v>285.88</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1052.71</v>
+        <v>285.88</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1052.71</v>
+        <v>324.32</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1073.42</v>
+        <v>324.32</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1073.42</v>
+        <v>324.32</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>36.41</v>
+        <v>7.54</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>92.31</v>
+        <v>899.8</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>216.77</v>
+        <v>1186.03</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>285.88</v>
+        <v>1203.63</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>285.88</v>
+        <v>2865.41</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>7.54</v>
+        <v>127.8</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>899.8</v>
+        <v>1231.31</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1186.03</v>
+        <v>1231.31</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1203.63</v>
+        <v>1273.66</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>127.8</v>
+        <v>65.95</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>1231.31</v>
+        <v>161.62</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>1231.31</v>
+        <v>232.86</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1273.66</v>
+        <v>247.74</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>1359.42</v>
+        <v>247.74</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>65.95</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>161.62</v>
+        <v>139.63</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>232.86</v>
+        <v>161.17</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>247.74</v>
+        <v>161.17</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>247.74</v>
+        <v>161.17</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>139.63</v>
+        <v>146.21</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>161.17</v>
+        <v>171.54</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>182.68</v>
+        <v>3230.34</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v/>
+        <v>119.59</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>146.21</v>
+        <v>2180.04</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>171.54</v>
+        <v>2925.6</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>182.68</v>
+        <v>3178.07</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>182.68</v>
+        <v>3178.07</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>182.68</v>
+        <v>3230.34</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>3178.07</v>
+        <v>2290.69</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>1716.74</v>
+        <v>1454.74</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>119.59</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>2180.04</v>
+        <v>2262.79</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2925.6</v>
+        <v>2290.69</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>3178.07</v>
+        <v>2290.69</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>3178.07</v>
+        <v>2290.69</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v/>
+        <v>22.06</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2262.79</v>
+        <v>596.63</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>696.48</v>
+        <v>367.68</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>1454.74</v>
+        <v>1451.2</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>22.06</v>
+        <v>67.64</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>596.63</v>
+        <v>367.68</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>696.48</v>
+        <v>367.68</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>367.68</v>
+        <v>361.49</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>67.64</v>
+        <v>93.67</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>367.68</v>
+        <v>361.49</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>93.67</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>93.67</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
